--- a/biology/Botanique/Phyllanthaceae/Phyllanthaceae.xlsx
+++ b/biology/Botanique/Phyllanthaceae/Phyllanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phyllanthaceae (Phyllanthacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend 1 725 espèces réparties en 56 genres.
 Ce sont des plantes herbacées, des arbustes ou des arbres majoritairement présentent en zone tropicale, assez communes en zone tempérée sud et plus rares en zone tempérée nord.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Phyllanthus composé du grec φύλλων / fyllon, feuille et άνθη / anthe, fleur, en références aux fleurs de certaines espèces semblant émerger de la feuille.
 </t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[1] classait les genres de cette famille dans les Euphorbiaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) classait les genres de cette famille dans les Euphorbiaceae.
 La famille inclut aussi le genre Hymenocardia, précédemment placé dans la famille propre des Hymenocardiaceae par certains auteurs. 
 La classification phylogénétique place cette famille dans l'ordre des Malpighiales.
 </t>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (24 mai 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (24 mai 2010) :
 Actephila (en) Blume (1826)
 Amanoa Aubl. (1775)
 Andrachne (en) L. (1753)
@@ -638,7 +656,7 @@
 Thecacoris (en) A.Juss. (1824)
 Uapaca Baill. (1858)
 WielandiaWielandia Baill. (1858)
-Selon Angiosperm Phylogeny Website                        (24 mai 2010)[3] :
+Selon Angiosperm Phylogeny Website                        (24 mai 2010) :
 Actephila
 Aerisilvaea
 Amanoa
@@ -694,7 +712,7 @@
 Wielandia
 Zimmermannia (en)
 Zimmermanniopsis (en)
-Selon NCBI  (24 mai 2010)[4] :
+Selon NCBI  (24 mai 2010) :
 tribu Amanoeae
 Amanoa
 Pentabrachion
